--- a/提单号识别船东/船东单号规则.xlsx
+++ b/提单号识别船东/船东单号规则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11670"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="126">
   <si>
     <t>代表可以匹配到</t>
   </si>
@@ -169,6 +169,28 @@
   </si>
   <si>
     <t>HBS（汉堡南美）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SUDU</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (新加10位数字)</t>
+    </r>
   </si>
   <si>
     <t>HMM</t>
@@ -441,7 +463,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,7 +498,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,33 +602,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,94 +642,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -688,12 +717,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -706,97 +753,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,55 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,30 +896,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -905,26 +910,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,6 +952,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,10 +1004,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,133 +1016,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1546,8 +1575,8 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
@@ -1818,7 +1847,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -1829,16 +1858,16 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A21" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
@@ -1846,16 +1875,16 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A22" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>23</v>
@@ -1863,11 +1892,11 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A23" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>23</v>
@@ -1875,13 +1904,13 @@
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:2">
       <c r="A24" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="16"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A25" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="1" t="s">
@@ -1896,16 +1925,16 @@
     </row>
     <row r="26" s="8" customFormat="1" customHeight="1" spans="1:5">
       <c r="A26" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>23</v>
@@ -1913,14 +1942,14 @@
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A27" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>23</v>
@@ -1928,10 +1957,10 @@
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A28" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
@@ -1942,11 +1971,11 @@
     </row>
     <row r="29" s="9" customFormat="1" customHeight="1" spans="1:5">
       <c r="A29" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>23</v>
@@ -1954,25 +1983,25 @@
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" s="9" customFormat="1" customHeight="1" spans="1:5">
       <c r="A31" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>23</v>
@@ -1980,31 +2009,31 @@
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A32" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="42" customHeight="1" spans="1:3">
       <c r="A33" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>23</v>
@@ -2012,16 +2041,16 @@
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>23</v>
@@ -2029,10 +2058,10 @@
     </row>
     <row r="36" s="6" customFormat="1" customHeight="1" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>29</v>
@@ -2046,16 +2075,16 @@
     </row>
     <row r="37" s="8" customFormat="1" customHeight="1" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>23</v>
@@ -2063,27 +2092,27 @@
     </row>
     <row r="38" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>23</v>
@@ -2091,13 +2120,13 @@
     </row>
     <row r="40" s="9" customFormat="1" customHeight="1" spans="1:5">
       <c r="A40" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>23</v>
@@ -2105,10 +2134,10 @@
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>23</v>
@@ -2116,10 +2145,10 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>37</v>
@@ -2130,18 +2159,18 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>11</v>
@@ -2155,16 +2184,16 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>23</v>
@@ -2172,7 +2201,7 @@
     </row>
     <row r="46" s="7" customFormat="1" customHeight="1" spans="1:5">
       <c r="A46" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>37</v>
@@ -2183,7 +2212,7 @@
     </row>
     <row r="47" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>14</v>
@@ -2194,7 +2223,7 @@
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:5">
       <c r="A48" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>23</v>
@@ -2202,16 +2231,16 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>23</v>
@@ -2219,13 +2248,13 @@
     </row>
     <row r="50" s="2" customFormat="1" ht="47" customHeight="1" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>23</v>
@@ -2233,24 +2262,24 @@
     </row>
     <row r="53" s="10" customFormat="1" ht="45" customHeight="1" spans="1:5">
       <c r="A53" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:3">
       <c r="C54" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/提单号识别船东/船东单号规则.xlsx
+++ b/提单号识别船东/船东单号规则.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$50</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
@@ -459,9 +459,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -504,6 +504,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -513,13 +521,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,22 +573,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -633,6 +618,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -643,6 +635,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -717,175 +717,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +896,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -910,21 +925,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,10 +1004,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,133 +1016,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1575,8 +1575,8 @@
   <sheetPr/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
